--- a/SuppXLS/Scen_ELC_RE_Share.xlsx
+++ b/SuppXLS/Scen_ELC_RE_Share.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADAC1551-4FD4-4C9C-B772-59E005E6EBCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55111BCD-0099-4538-AC6B-CE75C4FB9CB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UCT1" sheetId="1" r:id="rId1"/>
@@ -94,26 +94,26 @@
   </si>
   <si>
     <t>~UC_T</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>~UC_Sets: R_E: IE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>EPP*</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ELCHYD,ELCMSW,ELCWIN,ELCSOL,ELCBIO,ELCBGS,ELCH2G</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,12 +123,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -186,30 +180,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1"/>
-    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -544,7 +534,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
@@ -742,7 +733,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
